--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N2">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q2">
-        <v>3.923076720277777</v>
+        <v>5.162200474344777</v>
       </c>
       <c r="R2">
-        <v>35.3076904825</v>
+        <v>46.45980426910299</v>
       </c>
       <c r="S2">
-        <v>0.03352084967728641</v>
+        <v>0.05207278326675228</v>
       </c>
       <c r="T2">
-        <v>0.03352084967728641</v>
+        <v>0.05207278326675228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>428.209</v>
       </c>
       <c r="O3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q3">
         <v>8.031154952555555</v>
@@ -635,10 +635,10 @@
         <v>72.280394573</v>
       </c>
       <c r="S3">
-        <v>0.06862245046294869</v>
+        <v>0.08101285358918787</v>
       </c>
       <c r="T3">
-        <v>0.06862245046294869</v>
+        <v>0.08101285358918787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N4">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q4">
-        <v>11.08532021353589</v>
+        <v>9.431951629237558</v>
       </c>
       <c r="R4">
-        <v>99.767881921823</v>
+        <v>84.88756466313801</v>
       </c>
       <c r="S4">
-        <v>0.09471885945585336</v>
+        <v>0.09514314204043352</v>
       </c>
       <c r="T4">
-        <v>0.09471885945585336</v>
+        <v>0.09514314204043352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N5">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q5">
-        <v>8.894649528570778</v>
+        <v>4.424760403317889</v>
       </c>
       <c r="R5">
-        <v>80.051845757137</v>
+        <v>39.822843629861</v>
       </c>
       <c r="S5">
-        <v>0.07600060642154768</v>
+        <v>0.04463398712126248</v>
       </c>
       <c r="T5">
-        <v>0.07600060642154768</v>
+        <v>0.04463398712126248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N6">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q6">
-        <v>10.45439506722222</v>
+        <v>13.75646897142022</v>
       </c>
       <c r="R6">
-        <v>94.089555605</v>
+        <v>123.808220742782</v>
       </c>
       <c r="S6">
-        <v>0.08932790014122062</v>
+        <v>0.1387659450315111</v>
       </c>
       <c r="T6">
-        <v>0.08932790014122062</v>
+        <v>0.1387659450315111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>428.209</v>
       </c>
       <c r="O7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q7">
         <v>21.40179066244444</v>
@@ -883,10 +883,10 @@
         <v>192.616115962</v>
       </c>
       <c r="S7">
-        <v>0.1828682584544906</v>
+        <v>0.2158867739105631</v>
       </c>
       <c r="T7">
-        <v>0.1828682584544906</v>
+        <v>0.2158867739105631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N8">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q8">
-        <v>29.54067055582911</v>
+        <v>25.13469799795245</v>
       </c>
       <c r="R8">
-        <v>265.866035002462</v>
+        <v>226.2122819815721</v>
       </c>
       <c r="S8">
-        <v>0.2524111679870676</v>
+        <v>0.2535418157096615</v>
       </c>
       <c r="T8">
-        <v>0.2524111679870676</v>
+        <v>0.2535418157096615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N9">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q9">
-        <v>23.70287067686423</v>
+        <v>11.79130479273711</v>
       </c>
       <c r="R9">
-        <v>213.325836091778</v>
+        <v>106.121743134634</v>
       </c>
       <c r="S9">
-        <v>0.202529907399585</v>
+        <v>0.1189426993306282</v>
       </c>
       <c r="T9">
-        <v>0.202529907399585</v>
+        <v>0.1189426993306282</v>
       </c>
     </row>
   </sheetData>
